--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Dokumenty\MAEBD\Information Retrieval\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C8FC5B5-F67B-4929-93DF-F4449088C927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AB13F4-CCF0-478D-8441-7299D8704C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3636" yWindow="2088" windowWidth="17280" windowHeight="9420" xr2:uid="{9B5D3BFF-3403-4D29-B4CF-D4B378F259DB}"/>
+    <workbookView xWindow="3480" yWindow="2256" windowWidth="17280" windowHeight="9420" xr2:uid="{9B5D3BFF-3403-4D29-B4CF-D4B378F259DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Baseline</t>
   </si>
@@ -44,12 +44,6 @@
     <t>P@10</t>
   </si>
   <si>
-    <t>Recall</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
     <t>NDCG5</t>
   </si>
   <si>
@@ -71,7 +65,58 @@
     <t>B5 - VSM, only bigrams</t>
   </si>
   <si>
-    <t>B6 - VSM, lemmatization</t>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>B6 - VSM, lemmatization, lowercase</t>
+  </si>
+  <si>
+    <t>B7 - VSM, lowercase, bi and unigrams</t>
+  </si>
+  <si>
+    <t>B1 - LMJM, no pre-processing</t>
+  </si>
+  <si>
+    <t>B2 - LMJM, english stopwords</t>
+  </si>
+  <si>
+    <t>B3 - LMJM, lowercase words</t>
+  </si>
+  <si>
+    <t>B4 - LMJM, bigrams and unigrams</t>
+  </si>
+  <si>
+    <t>B5 - LMJM, only bigrams</t>
+  </si>
+  <si>
+    <t>B6 - LMJM, lemmatization, lowercase</t>
+  </si>
+  <si>
+    <t>B7 - LMJM, lowercase, bi and unigrams</t>
+  </si>
+  <si>
+    <t>Model, baseline</t>
+  </si>
+  <si>
+    <t>B8 - VSM, lemmatization, lowercase, english stopwords</t>
+  </si>
+  <si>
+    <t>B8 - LMJM lemmatization, lowercase, english stopwords</t>
+  </si>
+  <si>
+    <t>B9 - VSM, lowercase, english stopwords</t>
+  </si>
+  <si>
+    <t>B9 - LMJM, lowercase, english stopwords</t>
+  </si>
+  <si>
+    <t>Recall@100</t>
+  </si>
+  <si>
+    <t>LMJM, B8</t>
+  </si>
+  <si>
+    <t>VSM, B8</t>
   </si>
 </sst>
 </file>
@@ -97,7 +142,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,7 +151,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC00CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -123,19 +198,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC00CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -444,60 +527,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2478B831-90B5-480B-9F2C-887AF71CBB30}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="B2">
+        <v>0.01</v>
+      </c>
+      <c r="C2">
+        <v>0.04</v>
+      </c>
+      <c r="D2">
+        <v>0.01</v>
+      </c>
+      <c r="E2">
+        <v>0.01</v>
+      </c>
+      <c r="F2">
         <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0.01</v>
@@ -506,7 +590,7 @@
         <v>0.04</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E3">
         <v>0.01</v>
@@ -516,37 +600,37 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>0.19</v>
       </c>
-      <c r="D4" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="E4" s="5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="D4" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F4" s="3">
         <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C5">
         <v>0.04</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E5">
         <v>0.01</v>
@@ -557,7 +641,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0.01</v>
@@ -566,32 +650,368 @@
         <v>0.02</v>
       </c>
       <c r="D6">
+        <v>0.01</v>
+      </c>
+      <c r="E6">
+        <v>0.01</v>
+      </c>
+      <c r="F6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>0.01</v>
-      </c>
-      <c r="F6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>0.01</v>
-      </c>
-      <c r="C7">
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.02</v>
+      </c>
+      <c r="C13">
+        <v>0.04</v>
+      </c>
+      <c r="D13">
+        <v>0.01</v>
+      </c>
+      <c r="E13">
+        <v>0.01</v>
+      </c>
+      <c r="F13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.02</v>
+      </c>
+      <c r="C14">
+        <v>0.04</v>
+      </c>
+      <c r="D14">
+        <v>0.01</v>
+      </c>
+      <c r="E14">
+        <v>0.01</v>
+      </c>
+      <c r="F14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.02</v>
+      </c>
+      <c r="C16">
+        <v>0.05</v>
+      </c>
+      <c r="D16">
+        <v>0.01</v>
+      </c>
+      <c r="E16">
+        <v>0.01</v>
+      </c>
+      <c r="F16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.02</v>
+      </c>
+      <c r="C17">
+        <v>0.05</v>
+      </c>
+      <c r="D17">
+        <v>0.01</v>
+      </c>
+      <c r="E17">
+        <v>0.01</v>
+      </c>
+      <c r="F17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E20" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0.01</v>
-      </c>
-      <c r="F7">
+      <c r="F20" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="E25" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="F26" s="4">
         <v>0.01</v>
       </c>
     </row>
